--- a/Princípios Desenvolvimento Software/Test Scenarios.xlsx
+++ b/Princípios Desenvolvimento Software/Test Scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nunocastro/Dropbox/Isep/UPSkill_/PDS/Metodologias de teste de software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\OneDrive\Ambiente de Trabalho\submissoes\Princípios Desenvolvimento Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B123B987-C208-874B-85C7-62E54B2EF5F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E4A85C-26BA-4E96-A297-FADF08D0ED57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{ADBD0B6B-749C-A346-B51B-625E38E55483}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ADBD0B6B-749C-A346-B51B-625E38E55483}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -676,47 +675,47 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -733,7 +732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -750,7 +749,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -767,7 +766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -784,7 +783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -801,7 +800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -818,7 +817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -835,7 +834,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -852,7 +851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -869,12 +868,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -891,17 +890,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -920,44 +919,44 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -974,7 +973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -991,7 +990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1008,7 +1007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1025,7 +1024,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1059,7 +1058,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1076,7 +1075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1093,7 +1092,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1110,12 +1109,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1132,17 +1131,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -1161,44 +1160,44 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1232,7 +1231,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1240,7 +1239,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1248,7 +1247,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1256,7 +1255,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1264,7 +1263,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1272,7 +1271,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1280,7 +1279,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1288,12 +1287,12 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1301,17 +1300,17 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -1322,6 +1321,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010012110C179FB2474DBD0E7D8AAC441234" ma:contentTypeVersion="6" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="f01bd94f17b46b18e3f1347b74130a26">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="958fda12-23b8-4351-b231-7e729a58f827" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f16190ad529205b3698d1df2ca7600ff" ns2:_="">
     <xsd:import namespace="958fda12-23b8-4351-b231-7e729a58f827"/>
@@ -1479,29 +1493,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E2EAECB-3B5E-4CED-A277-0ED96C1001BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3E8A7B-6FD4-40D7-AD06-1F046991E66D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEB43558-0BE8-4DAA-A3B9-CDEB45266282}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEB43558-0BE8-4DAA-A3B9-CDEB45266282}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3E8A7B-6FD4-40D7-AD06-1F046991E66D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E2EAECB-3B5E-4CED-A277-0ED96C1001BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="958fda12-23b8-4351-b231-7e729a58f827"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>